--- a/biology/Botanique/Myriophylle_verticillé/Myriophylle_verticillé.xlsx
+++ b/biology/Botanique/Myriophylle_verticillé/Myriophylle_verticillé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Myriophylle_verticill%C3%A9</t>
+          <t>Myriophylle_verticillé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Myriophyllum verticillatum, le myriophylle verticillé, est une espèce de plante herbacée aquatique dicotylédone.
 C'est une espèce dont l'aire de répartition s'étend sur presque toute l'Europe, l'Asie occidentale et boréale ; le Japon ; l'Afrique septentrionale ; l'Amérique septentrionale et méridionale.  Cette espèce indigène en France métropolitaine, de la famille des Haloragaceae, peut facilement être confondue avec d'autres espèces de myriophylles invasives comme le myriophylle du Brésil.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Myriophylle_verticill%C3%A9</t>
+          <t>Myriophylle_verticillé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Statut</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste rouge européenne de l'UICN (2012) : LC[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste rouge européenne de l'UICN (2012) : LC.
 Protection régionale dans les régions Basse Normandie et Nord-Pas-de-Calais.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Myriophylle_verticill%C3%A9</t>
+          <t>Myriophylle_verticillé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Myriophyllum verticillatum est une hydrophyte. Cette espèce se retrouve dans les habitats humides tel que les fossés, mares ou étangs.
-C'est une espèce dont la trophie est de mésotrophe à eutrophe, Elle préfère un substrat basique[2].
+C'est une espèce dont la trophie est de mésotrophe à eutrophe, Elle préfère un substrat basique.
 </t>
         </is>
       </c>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Myriophylle_verticill%C3%A9</t>
+          <t>Myriophylle_verticillé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Risque de confusion</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Myriophyle en épis.
 Avec le genre  cératophylle, la confusion peut être levée en examinant les feuilles. Ces dernières ont un segment dichotomes, alors que chez Myriophyllum celles-ci sont pennée et possèdent des segments filiformes. 
